--- a/Code/Results/Cases/Case_6_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9798986232567086</v>
+        <v>1.009792450502133</v>
       </c>
       <c r="D2">
-        <v>1.002125649922029</v>
+        <v>1.026593401768305</v>
       </c>
       <c r="E2">
-        <v>0.9866170341555566</v>
+        <v>1.012444307439085</v>
       </c>
       <c r="F2">
-        <v>0.9556539386095105</v>
+        <v>0.9871612252159694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036039067399441</v>
+        <v>1.049073361554905</v>
       </c>
       <c r="J2">
-        <v>1.002697648431936</v>
+        <v>1.03168416452605</v>
       </c>
       <c r="K2">
-        <v>1.013555450288834</v>
+        <v>1.037694275064504</v>
       </c>
       <c r="L2">
-        <v>0.9982660182300681</v>
+        <v>1.023732953497979</v>
       </c>
       <c r="M2">
-        <v>0.9677677223925517</v>
+        <v>0.9988023705591538</v>
       </c>
       <c r="N2">
-        <v>1.004121594103737</v>
+        <v>1.033149274375505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900302001106462</v>
+        <v>1.01789175955901</v>
       </c>
       <c r="D3">
-        <v>1.010034063727916</v>
+        <v>1.033074287928542</v>
       </c>
       <c r="E3">
-        <v>0.9953973279307247</v>
+        <v>1.019484754927276</v>
       </c>
       <c r="F3">
-        <v>0.9688565424819372</v>
+        <v>0.9980527371541169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039888786639091</v>
+        <v>1.052720301115419</v>
       </c>
       <c r="J3">
-        <v>1.010796391701739</v>
+        <v>1.037906282086324</v>
       </c>
       <c r="K3">
-        <v>1.020540146709825</v>
+        <v>1.04330076891674</v>
       </c>
       <c r="L3">
-        <v>1.006089441541999</v>
+        <v>1.029874250047584</v>
       </c>
       <c r="M3">
-        <v>0.9799040533378358</v>
+        <v>1.008710594355527</v>
       </c>
       <c r="N3">
-        <v>1.012231838517922</v>
+        <v>1.039380228056401</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9962951606312067</v>
+        <v>1.022941168522146</v>
       </c>
       <c r="D4">
-        <v>1.014926861450514</v>
+        <v>1.037116478652557</v>
       </c>
       <c r="E4">
-        <v>1.000827435116711</v>
+        <v>1.023873383446873</v>
       </c>
       <c r="F4">
-        <v>0.9770077739431052</v>
+        <v>1.004835337737194</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042251088127045</v>
+        <v>1.054978838400751</v>
       </c>
       <c r="J4">
-        <v>1.015794113724575</v>
+        <v>1.041775700785486</v>
       </c>
       <c r="K4">
-        <v>1.024848409596983</v>
+        <v>1.046786664062424</v>
       </c>
       <c r="L4">
-        <v>1.010915883973776</v>
+        <v>1.033691969255354</v>
       </c>
       <c r="M4">
-        <v>0.9873918511944735</v>
+        <v>1.014875752710448</v>
       </c>
       <c r="N4">
-        <v>1.017236657879277</v>
+        <v>1.043255141773944</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988650978504745</v>
+        <v>1.025021174054634</v>
       </c>
       <c r="D5">
-        <v>1.016934360783572</v>
+        <v>1.038781913131614</v>
       </c>
       <c r="E5">
-        <v>1.003054961492629</v>
+        <v>1.025680965518075</v>
       </c>
       <c r="F5">
-        <v>0.9803492142678217</v>
+        <v>1.007628002811192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043215688359761</v>
+        <v>1.055905545778339</v>
       </c>
       <c r="J5">
-        <v>1.017841743248453</v>
+        <v>1.043367296568368</v>
       </c>
       <c r="K5">
-        <v>1.026613024174301</v>
+        <v>1.048220318240874</v>
       </c>
       <c r="L5">
-        <v>1.012892976678958</v>
+        <v>1.035261932016482</v>
       </c>
       <c r="M5">
-        <v>0.9904600191221508</v>
+        <v>1.017412915119157</v>
       </c>
       <c r="N5">
-        <v>1.019287195271946</v>
+        <v>1.044848997805397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992930107380738</v>
+        <v>1.025367991048622</v>
       </c>
       <c r="D6">
-        <v>1.017268644471364</v>
+        <v>1.039059622234763</v>
       </c>
       <c r="E6">
-        <v>1.003425860366468</v>
+        <v>1.025982343634112</v>
       </c>
       <c r="F6">
-        <v>0.9809054757809086</v>
+        <v>1.008093585443946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043376038323336</v>
+        <v>1.056059847776809</v>
       </c>
       <c r="J6">
-        <v>1.018182541703076</v>
+        <v>1.043632539027085</v>
       </c>
       <c r="K6">
-        <v>1.026906685759751</v>
+        <v>1.048459227662562</v>
       </c>
       <c r="L6">
-        <v>1.013222013231682</v>
+        <v>1.035523547050843</v>
       </c>
       <c r="M6">
-        <v>0.990970708727837</v>
+        <v>1.01783582477016</v>
       </c>
       <c r="N6">
-        <v>1.019628477699464</v>
+        <v>1.045114616938829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9963297441021178</v>
+        <v>1.022969125905614</v>
       </c>
       <c r="D7">
-        <v>1.014953874731248</v>
+        <v>1.037138862576792</v>
       </c>
       <c r="E7">
-        <v>1.000857410729331</v>
+        <v>1.023897680177373</v>
       </c>
       <c r="F7">
-        <v>0.9770527474873253</v>
+        <v>1.004872878474226</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042264086377097</v>
+        <v>1.054991308806706</v>
       </c>
       <c r="J7">
-        <v>1.015821678400037</v>
+        <v>1.041797102723254</v>
       </c>
       <c r="K7">
-        <v>1.024872166595076</v>
+        <v>1.04680594296236</v>
       </c>
       <c r="L7">
-        <v>1.010942500572305</v>
+        <v>1.033713081783274</v>
       </c>
       <c r="M7">
-        <v>0.9874331519784734</v>
+        <v>1.014909863949428</v>
       </c>
       <c r="N7">
-        <v>1.01726426169974</v>
+        <v>1.043276574104918</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9833866021996139</v>
+        <v>1.012571222828553</v>
       </c>
       <c r="D8">
-        <v>1.004847603277955</v>
+        <v>1.028816480034075</v>
       </c>
       <c r="E8">
-        <v>0.989639573960311</v>
+        <v>1.014859887617294</v>
       </c>
       <c r="F8">
-        <v>0.9602024251370148</v>
+        <v>0.990899917109008</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037368244648865</v>
+        <v>1.050327765027507</v>
       </c>
       <c r="J8">
-        <v>1.005487950619952</v>
+        <v>1.033820940751199</v>
       </c>
       <c r="K8">
-        <v>1.015962308657553</v>
+        <v>1.039619764037633</v>
       </c>
       <c r="L8">
-        <v>1.000961737079893</v>
+        <v>1.025842265208075</v>
       </c>
       <c r="M8">
-        <v>0.9719499003162284</v>
+        <v>1.002204582292658</v>
       </c>
       <c r="N8">
-        <v>1.006915858840912</v>
+        <v>1.035289085067985</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.958039617275488</v>
+        <v>0.9926255832736683</v>
       </c>
       <c r="D9">
-        <v>0.9850876583870147</v>
+        <v>1.012871593365185</v>
       </c>
       <c r="E9">
-        <v>0.9676844220731819</v>
+        <v>0.9975218511250215</v>
       </c>
       <c r="F9">
-        <v>0.9270488111857235</v>
+        <v>0.9640045689347242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027630881484845</v>
+        <v>1.041258824272551</v>
       </c>
       <c r="J9">
-        <v>0.9851663752137585</v>
+        <v>1.018441465981067</v>
       </c>
       <c r="K9">
-        <v>0.9984274019578645</v>
+        <v>1.025759233604748</v>
       </c>
       <c r="L9">
-        <v>0.9813244995692192</v>
+        <v>1.010655262930078</v>
       </c>
       <c r="M9">
-        <v>0.9414478333233748</v>
+        <v>0.9777099540529749</v>
       </c>
       <c r="N9">
-        <v>0.9865654244667246</v>
+        <v>1.019887769679629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9388853909020509</v>
+        <v>0.9779772737027558</v>
       </c>
       <c r="D10">
-        <v>0.9701946890195853</v>
+        <v>1.001182657893836</v>
       </c>
       <c r="E10">
-        <v>0.9511148856807443</v>
+        <v>0.9847941249835761</v>
       </c>
       <c r="F10">
-        <v>0.9017967945319191</v>
+        <v>0.9441378097446265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020174274072244</v>
+        <v>1.034515904845862</v>
       </c>
       <c r="J10">
-        <v>0.9697526650219566</v>
+        <v>1.007092746252375</v>
       </c>
       <c r="K10">
-        <v>0.9851237797648167</v>
+        <v>1.015530591868304</v>
       </c>
       <c r="L10">
-        <v>0.9664266717233333</v>
+        <v>0.9994434630211393</v>
       </c>
       <c r="M10">
-        <v>0.9181985289109061</v>
+        <v>0.9595946488024137</v>
       </c>
       <c r="N10">
-        <v>0.9711298250384732</v>
+        <v>1.008522933467206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9298865908352398</v>
+        <v>0.97124082525553</v>
       </c>
       <c r="D11">
-        <v>0.9632122716660199</v>
+        <v>0.9958142851358925</v>
       </c>
       <c r="E11">
-        <v>0.9433392757387981</v>
+        <v>0.9789440082501611</v>
       </c>
       <c r="F11">
-        <v>0.889856054636762</v>
+        <v>0.9349591294047095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016649135524482</v>
+        <v>1.031395779960509</v>
       </c>
       <c r="J11">
-        <v>0.9624978784822619</v>
+        <v>1.00186096887374</v>
       </c>
       <c r="K11">
-        <v>0.9788629757052388</v>
+        <v>1.010815571975759</v>
       </c>
       <c r="L11">
-        <v>0.9594151371735897</v>
+        <v>0.9942742422928311</v>
       </c>
       <c r="M11">
-        <v>0.9072040061244203</v>
+        <v>0.9512214989536402</v>
       </c>
       <c r="N11">
-        <v>0.9638647358697564</v>
+        <v>1.0032837263646</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9264185481971405</v>
+        <v>0.9686717688551594</v>
       </c>
       <c r="D12">
-        <v>0.960524029081865</v>
+        <v>0.9937682434217984</v>
       </c>
       <c r="E12">
-        <v>0.9403443859176182</v>
+        <v>0.9767136157199063</v>
       </c>
       <c r="F12">
-        <v>0.8852390700395932</v>
+        <v>0.9314506800922736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015287437870739</v>
+        <v>1.03020302553548</v>
       </c>
       <c r="J12">
-        <v>0.9596999803734905</v>
+        <v>0.9998638308992707</v>
       </c>
       <c r="K12">
-        <v>0.9764487268462323</v>
+        <v>1.009015815902816</v>
       </c>
       <c r="L12">
-        <v>0.9567112633504322</v>
+        <v>0.9923009704650273</v>
       </c>
       <c r="M12">
-        <v>0.9029531586283986</v>
+        <v>0.9480205749575236</v>
       </c>
       <c r="N12">
-        <v>0.9610628644247473</v>
+        <v>1.001283752225132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9271685105992475</v>
+        <v>0.9692260049414615</v>
       </c>
       <c r="D13">
-        <v>0.9611052283796467</v>
+        <v>0.9942095856504966</v>
       </c>
       <c r="E13">
-        <v>0.9409919429129869</v>
+        <v>0.9771947576944137</v>
       </c>
       <c r="F13">
-        <v>0.8862382414147506</v>
+        <v>0.9322079674882536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015582043077372</v>
+        <v>1.030460472200206</v>
       </c>
       <c r="J13">
-        <v>0.9603051132602116</v>
+        <v>1.000294770271279</v>
       </c>
       <c r="K13">
-        <v>0.9769708663458575</v>
+        <v>1.009404158108166</v>
       </c>
       <c r="L13">
-        <v>0.9572960482217123</v>
+        <v>0.9927267593501008</v>
       </c>
       <c r="M13">
-        <v>0.9038730734592474</v>
+        <v>0.9487114979741039</v>
       </c>
       <c r="N13">
-        <v>0.9616688566695772</v>
+        <v>1.001715303580478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9296026148298461</v>
+        <v>0.9710298796614509</v>
       </c>
       <c r="D14">
-        <v>0.9629920904701491</v>
+        <v>0.9956462572557593</v>
       </c>
       <c r="E14">
-        <v>0.94309400526875</v>
+        <v>0.9787608561733702</v>
       </c>
       <c r="F14">
-        <v>0.8894783286936154</v>
+        <v>0.9346712227641458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016537697167689</v>
+        <v>1.031297899977313</v>
       </c>
       <c r="J14">
-        <v>0.962268816182364</v>
+        <v>1.001697022285903</v>
       </c>
       <c r="K14">
-        <v>0.9786653151462231</v>
+        <v>1.010667825844788</v>
       </c>
       <c r="L14">
-        <v>0.9591937673397845</v>
+        <v>0.9941122547108387</v>
       </c>
       <c r="M14">
-        <v>0.9068562264548206</v>
+        <v>0.9509588346896087</v>
       </c>
       <c r="N14">
-        <v>0.9636353482751187</v>
+        <v>1.003119546953803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9310850369689513</v>
+        <v>0.9721321937376808</v>
       </c>
       <c r="D15">
-        <v>0.9641416012485987</v>
+        <v>0.996524354182117</v>
       </c>
       <c r="E15">
-        <v>0.9443744485284057</v>
+        <v>0.9797179602141608</v>
       </c>
       <c r="F15">
-        <v>0.8914495129325134</v>
+        <v>0.9361753682747099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01711930592581</v>
+        <v>1.031809265198763</v>
       </c>
       <c r="J15">
-        <v>0.9634644959909447</v>
+        <v>1.002553661572669</v>
       </c>
       <c r="K15">
-        <v>0.9796970949458673</v>
+        <v>1.011439821117806</v>
       </c>
       <c r="L15">
-        <v>0.9603493028149541</v>
+        <v>0.9949586578765459</v>
       </c>
       <c r="M15">
-        <v>0.9086711480708577</v>
+        <v>0.9523310891341435</v>
       </c>
       <c r="N15">
-        <v>0.9648327260861741</v>
+        <v>1.003977402766615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9394662101574659</v>
+        <v>0.9784154317913732</v>
       </c>
       <c r="D16">
-        <v>0.9706456984025043</v>
+        <v>1.001531995338801</v>
       </c>
       <c r="E16">
-        <v>0.9516169681511011</v>
+        <v>0.9851747116096049</v>
       </c>
       <c r="F16">
-        <v>0.9025656576625783</v>
+        <v>0.9447338176670051</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020401365843428</v>
+        <v>1.034718455613966</v>
       </c>
       <c r="J16">
-        <v>0.9702206494477197</v>
+        <v>1.007432774561685</v>
       </c>
       <c r="K16">
-        <v>0.9855276764082459</v>
+        <v>1.015837047529321</v>
       </c>
       <c r="L16">
-        <v>0.9668789846574164</v>
+        <v>0.9997794195943053</v>
       </c>
       <c r="M16">
-        <v>0.918906478883127</v>
+        <v>0.9601382886848432</v>
       </c>
       <c r="N16">
-        <v>0.9715984740557996</v>
+        <v>1.008863444655717</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9445225637720677</v>
+        <v>0.982246359416309</v>
       </c>
       <c r="D17">
-        <v>0.9745736293344464</v>
+        <v>1.004587159658009</v>
       </c>
       <c r="E17">
-        <v>0.9559888942891852</v>
+        <v>0.9885026420559758</v>
       </c>
       <c r="F17">
-        <v>0.9092502108341469</v>
+        <v>0.9499399702762709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022375913801657</v>
+        <v>1.036487266122063</v>
       </c>
       <c r="J17">
-        <v>0.9742932462933502</v>
+        <v>1.010404304489442</v>
       </c>
       <c r="K17">
-        <v>0.9890426627499536</v>
+        <v>1.018515234567201</v>
       </c>
       <c r="L17">
-        <v>0.9708152625102939</v>
+        <v>1.002715310164392</v>
       </c>
       <c r="M17">
-        <v>0.9250613943587341</v>
+        <v>0.9648866119970273</v>
       </c>
       <c r="N17">
-        <v>0.975676854456084</v>
+        <v>1.011839194496811</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9474054010863171</v>
+        <v>0.984443484720039</v>
       </c>
       <c r="D18">
-        <v>0.9768143898486384</v>
+        <v>1.006340014864963</v>
       </c>
       <c r="E18">
-        <v>0.9584822962969425</v>
+        <v>0.9904115619493914</v>
       </c>
       <c r="F18">
-        <v>0.9130545390321897</v>
+        <v>0.9529219973329492</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023499658594777</v>
+        <v>1.03749993101867</v>
       </c>
       <c r="J18">
-        <v>0.9766139805814047</v>
+        <v>1.012107360350624</v>
       </c>
       <c r="K18">
-        <v>0.9910457098857437</v>
+        <v>1.020050201478256</v>
       </c>
       <c r="L18">
-        <v>0.9730583461105138</v>
+        <v>1.004397882677951</v>
       </c>
       <c r="M18">
-        <v>0.9285641920561976</v>
+        <v>0.9676060472311736</v>
       </c>
       <c r="N18">
-        <v>0.9780008844530192</v>
+        <v>1.013544668892659</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.948377613705934</v>
+        <v>0.9851865164219381</v>
       </c>
       <c r="D19">
-        <v>0.9775702713674932</v>
+        <v>1.006932906050567</v>
       </c>
       <c r="E19">
-        <v>0.9593232978881855</v>
+        <v>0.9910571691205222</v>
       </c>
       <c r="F19">
-        <v>0.914336447246483</v>
+        <v>0.9539298642365636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023878284156659</v>
+        <v>1.037842093065099</v>
       </c>
       <c r="J19">
-        <v>0.9773964206027916</v>
+        <v>1.012683104735777</v>
       </c>
       <c r="K19">
-        <v>0.9917210470049944</v>
+        <v>1.020569124808907</v>
       </c>
       <c r="L19">
-        <v>0.9738146075573499</v>
+        <v>1.004966690748542</v>
       </c>
       <c r="M19">
-        <v>0.9297444696728941</v>
+        <v>0.9685250990939828</v>
       </c>
       <c r="N19">
-        <v>0.9787844356289841</v>
+        <v>1.014121230900878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9439870623810881</v>
+        <v>0.9818392555726764</v>
       </c>
       <c r="D20">
-        <v>0.9741574980313691</v>
+        <v>1.004262425568976</v>
       </c>
       <c r="E20">
-        <v>0.9555257938109367</v>
+        <v>0.9881489607456012</v>
       </c>
       <c r="F20">
-        <v>0.9085430045333766</v>
+        <v>0.9493871326894704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022167006584631</v>
+        <v>1.03629948464089</v>
       </c>
       <c r="J20">
-        <v>0.9738620586464138</v>
+        <v>1.010088650202078</v>
       </c>
       <c r="K20">
-        <v>0.9886705046606192</v>
+        <v>1.018230737158561</v>
       </c>
       <c r="L20">
-        <v>0.9703985037386863</v>
+        <v>1.002403447255502</v>
       </c>
       <c r="M20">
-        <v>0.9244102304843012</v>
+        <v>0.9643824265859735</v>
       </c>
       <c r="N20">
-        <v>0.9752450544732313</v>
+        <v>1.011523091944153</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9288894816135348</v>
+        <v>0.9705005980006242</v>
       </c>
       <c r="D21">
-        <v>0.9624392069936785</v>
+        <v>0.9952246812711223</v>
       </c>
       <c r="E21">
-        <v>0.9424781006737276</v>
+        <v>0.9783013220169609</v>
       </c>
       <c r="F21">
-        <v>0.8885295099668623</v>
+        <v>0.9339487041328252</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016257798417153</v>
+        <v>1.031052264727849</v>
       </c>
       <c r="J21">
-        <v>0.9616935530798414</v>
+        <v>1.001285634699385</v>
       </c>
       <c r="K21">
-        <v>0.97816891945434</v>
+        <v>1.010297091834516</v>
       </c>
       <c r="L21">
-        <v>0.9586378269158718</v>
+        <v>0.9937057828631797</v>
       </c>
       <c r="M21">
-        <v>0.9059826364312948</v>
+        <v>0.9502996578421476</v>
       </c>
       <c r="N21">
-        <v>0.963059268233007</v>
+        <v>1.002707575149726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9186566488089861</v>
+        <v>0.9629798207008801</v>
       </c>
       <c r="D22">
-        <v>0.9545131737365092</v>
+        <v>0.9892376945131802</v>
       </c>
       <c r="E22">
-        <v>0.9336452726499572</v>
+        <v>0.971773430715536</v>
       </c>
       <c r="F22">
-        <v>0.874872405011933</v>
+        <v>0.9236604380303215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012234137168551</v>
+        <v>1.027555167991571</v>
       </c>
       <c r="J22">
-        <v>0.9534342713217245</v>
+        <v>0.9954354676291712</v>
       </c>
       <c r="K22">
-        <v>0.9710429956407127</v>
+        <v>1.005025412772302</v>
       </c>
       <c r="L22">
-        <v>0.9506567169193073</v>
+        <v>0.9879255953228916</v>
       </c>
       <c r="M22">
-        <v>0.8934096738121631</v>
+        <v>0.9409126923828648</v>
       </c>
       <c r="N22">
-        <v>0.9547882573474407</v>
+        <v>0.9968491001712487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9241596032900681</v>
+        <v>0.9670068450859025</v>
       </c>
       <c r="D23">
-        <v>0.95877385756473</v>
+        <v>0.9924426571796714</v>
       </c>
       <c r="E23">
-        <v>0.9383941883134757</v>
+        <v>0.9752683769753245</v>
       </c>
       <c r="F23">
-        <v>0.8822269231873986</v>
+        <v>0.9291744688354859</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014399616195722</v>
+        <v>1.029429242888621</v>
       </c>
       <c r="J23">
-        <v>0.9578769836223315</v>
+        <v>0.9985690094231181</v>
       </c>
       <c r="K23">
-        <v>0.9748758142223624</v>
+        <v>1.007849006466751</v>
       </c>
       <c r="L23">
-        <v>0.9549496111210184</v>
+        <v>0.9910216287728021</v>
       </c>
       <c r="M23">
-        <v>0.9001800205866907</v>
+        <v>0.9459437977265281</v>
       </c>
       <c r="N23">
-        <v>0.9592372788091007</v>
+        <v>0.9999870919539652</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9442292363354956</v>
+        <v>0.9820233232543368</v>
       </c>
       <c r="D24">
-        <v>0.974345684356381</v>
+        <v>1.004409248638582</v>
       </c>
       <c r="E24">
-        <v>0.9557352229173025</v>
+        <v>0.9883088731529605</v>
       </c>
       <c r="F24">
-        <v>0.908862850944387</v>
+        <v>0.9496371041122607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022261488653228</v>
+        <v>1.036384393614189</v>
       </c>
       <c r="J24">
-        <v>0.9740570618011767</v>
+        <v>1.010231373625843</v>
       </c>
       <c r="K24">
-        <v>0.9888388117157764</v>
+        <v>1.018359372867874</v>
       </c>
       <c r="L24">
-        <v>0.9705869814012252</v>
+        <v>1.0025444565877</v>
       </c>
       <c r="M24">
-        <v>0.9247047310733757</v>
+        <v>0.9646104005164404</v>
       </c>
       <c r="N24">
-        <v>0.9754403345548409</v>
+        <v>1.01166601805155</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9649428166113101</v>
+        <v>0.9979986578022771</v>
       </c>
       <c r="D25">
-        <v>0.9904641014820285</v>
+        <v>1.017163961734603</v>
       </c>
       <c r="E25">
-        <v>0.9736612831561172</v>
+        <v>1.002192047791226</v>
       </c>
       <c r="F25">
-        <v>0.936103496592372</v>
+        <v>0.9712649276765615</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030299502156637</v>
+        <v>1.043715886130017</v>
       </c>
       <c r="J25">
-        <v>0.9907104669146505</v>
+        <v>1.022593563323567</v>
       </c>
       <c r="K25">
-        <v>1.003212275973053</v>
+        <v>1.029501546725667</v>
       </c>
       <c r="L25">
-        <v>0.986682714759927</v>
+        <v>1.01475643008146</v>
       </c>
       <c r="M25">
-        <v>0.9497819269246794</v>
+        <v>0.9843263229066099</v>
       </c>
       <c r="N25">
-        <v>0.9921173894137485</v>
+        <v>1.024045763476608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009792450502133</v>
+        <v>1.006525843430473</v>
       </c>
       <c r="D2">
-        <v>1.026593401768305</v>
+        <v>1.025170034674418</v>
       </c>
       <c r="E2">
-        <v>1.012444307439085</v>
+        <v>1.011963230629352</v>
       </c>
       <c r="F2">
-        <v>0.9871612252159694</v>
+        <v>0.9837248931758126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049073361554905</v>
+        <v>1.047716567322714</v>
       </c>
       <c r="J2">
-        <v>1.03168416452605</v>
+        <v>1.028513104325147</v>
       </c>
       <c r="K2">
-        <v>1.037694275064504</v>
+        <v>1.036289503656407</v>
       </c>
       <c r="L2">
-        <v>1.023732953497979</v>
+        <v>1.023258377125327</v>
       </c>
       <c r="M2">
-        <v>0.9988023705591538</v>
+        <v>0.995415721239604</v>
       </c>
       <c r="N2">
-        <v>1.033149274375505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013063568867841</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03673007907927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01789175955901</v>
+        <v>1.011262442615978</v>
       </c>
       <c r="D3">
-        <v>1.033074287928542</v>
+        <v>1.028398401493991</v>
       </c>
       <c r="E3">
-        <v>1.019484754927276</v>
+        <v>1.015776104253287</v>
       </c>
       <c r="F3">
-        <v>0.9980527371541169</v>
+        <v>0.9911148234404388</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052720301115419</v>
+        <v>1.049286417834956</v>
       </c>
       <c r="J3">
-        <v>1.037906282086324</v>
+        <v>1.031450720719613</v>
       </c>
       <c r="K3">
-        <v>1.04330076891674</v>
+        <v>1.038680369552602</v>
       </c>
       <c r="L3">
-        <v>1.029874250047584</v>
+        <v>1.02621102911182</v>
       </c>
       <c r="M3">
-        <v>1.008710594355527</v>
+        <v>1.001862668483114</v>
       </c>
       <c r="N3">
-        <v>1.039380228056401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014076814327065</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03841796956175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022941168522146</v>
+        <v>1.014257743340757</v>
       </c>
       <c r="D4">
-        <v>1.037116478652557</v>
+        <v>1.030443539142904</v>
       </c>
       <c r="E4">
-        <v>1.023873383446873</v>
+        <v>1.018192912410109</v>
       </c>
       <c r="F4">
-        <v>1.004835337737194</v>
+        <v>0.9957757360670697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054978838400751</v>
+        <v>1.050268061637292</v>
       </c>
       <c r="J4">
-        <v>1.041775700785486</v>
+        <v>1.033303634986329</v>
       </c>
       <c r="K4">
-        <v>1.046786664062424</v>
+        <v>1.040187913644975</v>
       </c>
       <c r="L4">
-        <v>1.033691969255354</v>
+        <v>1.028076613709849</v>
       </c>
       <c r="M4">
-        <v>1.014875752710448</v>
+        <v>1.005925413033993</v>
       </c>
       <c r="N4">
-        <v>1.043255141773944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014715908847618</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039484834383053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025021174054634</v>
+        <v>1.015505643226054</v>
       </c>
       <c r="D5">
-        <v>1.038781913131614</v>
+        <v>1.031298645106546</v>
       </c>
       <c r="E5">
-        <v>1.025680965518075</v>
+        <v>1.019201804277904</v>
       </c>
       <c r="F5">
-        <v>1.007628002811192</v>
+        <v>0.9977126137610385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055905545778339</v>
+        <v>1.050676024496023</v>
       </c>
       <c r="J5">
-        <v>1.043367296568368</v>
+        <v>1.03407610533174</v>
       </c>
       <c r="K5">
-        <v>1.048220318240874</v>
+        <v>1.040817936913413</v>
       </c>
       <c r="L5">
-        <v>1.035261932016482</v>
+        <v>1.028854942767882</v>
       </c>
       <c r="M5">
-        <v>1.017412915119157</v>
+        <v>1.007613428682234</v>
       </c>
       <c r="N5">
-        <v>1.044848997805397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014983262436238</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039937486672291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025367991048622</v>
+        <v>1.015719911495932</v>
       </c>
       <c r="D6">
-        <v>1.039059622234763</v>
+        <v>1.031448237596505</v>
       </c>
       <c r="E6">
-        <v>1.025982343634112</v>
+        <v>1.019375943064023</v>
       </c>
       <c r="F6">
-        <v>1.008093585443946</v>
+        <v>0.9980421545533412</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056059847776809</v>
+        <v>1.050747963612756</v>
       </c>
       <c r="J6">
-        <v>1.043632539027085</v>
+        <v>1.03421069597397</v>
       </c>
       <c r="K6">
-        <v>1.048459227662562</v>
+        <v>1.040929721706821</v>
       </c>
       <c r="L6">
-        <v>1.035523547050843</v>
+        <v>1.028990378542319</v>
       </c>
       <c r="M6">
-        <v>1.01783582477016</v>
+        <v>1.007901265888256</v>
       </c>
       <c r="N6">
-        <v>1.045114616938829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015030973129094</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040025272485594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022969125905614</v>
+        <v>1.014289744646987</v>
       </c>
       <c r="D7">
-        <v>1.037138862576792</v>
+        <v>1.030472746577042</v>
       </c>
       <c r="E7">
-        <v>1.023897680177373</v>
+        <v>1.018221044837203</v>
       </c>
       <c r="F7">
-        <v>1.004872878474226</v>
+        <v>0.9958176558661499</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054991308806706</v>
+        <v>1.050284030869824</v>
       </c>
       <c r="J7">
-        <v>1.041797102723254</v>
+        <v>1.033328888759182</v>
       </c>
       <c r="K7">
-        <v>1.04680594296236</v>
+        <v>1.040213910954457</v>
       </c>
       <c r="L7">
-        <v>1.033713081783274</v>
+        <v>1.028101492092363</v>
       </c>
       <c r="M7">
-        <v>1.014909863949428</v>
+        <v>1.005963803041985</v>
       </c>
       <c r="N7">
-        <v>1.043276574104918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014727731673567</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039523335256661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012571222828553</v>
+        <v>1.00816072307425</v>
       </c>
       <c r="D8">
-        <v>1.028816480034075</v>
+        <v>1.026292572893442</v>
       </c>
       <c r="E8">
-        <v>1.014859887617294</v>
+        <v>1.013281074556769</v>
       </c>
       <c r="F8">
-        <v>0.990899917109008</v>
+        <v>0.9862685886992366</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050327765027507</v>
+        <v>1.048267455002249</v>
       </c>
       <c r="J8">
-        <v>1.033820940751199</v>
+        <v>1.029534819755955</v>
       </c>
       <c r="K8">
-        <v>1.039619764037633</v>
+        <v>1.037127793614472</v>
       </c>
       <c r="L8">
-        <v>1.025842265208075</v>
+        <v>1.024284100947485</v>
       </c>
       <c r="M8">
-        <v>1.002204582292658</v>
+        <v>0.9976378303214107</v>
       </c>
       <c r="N8">
-        <v>1.035289085067985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013420050662494</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037345775478189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926255832736683</v>
+        <v>0.9967693874184947</v>
       </c>
       <c r="D9">
-        <v>1.012871593365185</v>
+        <v>1.018542875407312</v>
       </c>
       <c r="E9">
-        <v>0.9975218511250215</v>
+        <v>1.004143014556889</v>
       </c>
       <c r="F9">
-        <v>0.9640045689347242</v>
+        <v>0.9684152450051148</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041258824272551</v>
+        <v>1.044423222896324</v>
       </c>
       <c r="J9">
-        <v>1.018441465981067</v>
+        <v>1.022436745005486</v>
       </c>
       <c r="K9">
-        <v>1.025759233604748</v>
+        <v>1.031342104246851</v>
       </c>
       <c r="L9">
-        <v>1.010655262930078</v>
+        <v>1.017169229972034</v>
       </c>
       <c r="M9">
-        <v>0.9777099540529749</v>
+        <v>0.9820424289214348</v>
       </c>
       <c r="N9">
-        <v>1.019887769679629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010968483174194</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033251684057626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9779772737027558</v>
+        <v>0.9887488791537039</v>
       </c>
       <c r="D10">
-        <v>1.001182657893836</v>
+        <v>1.013113726727504</v>
       </c>
       <c r="E10">
-        <v>0.9847941249835761</v>
+        <v>0.9977452120830002</v>
       </c>
       <c r="F10">
-        <v>0.9441378097446265</v>
+        <v>0.9557299164206414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034515904845862</v>
+        <v>1.041660880696384</v>
       </c>
       <c r="J10">
-        <v>1.007092746252375</v>
+        <v>1.017416113585348</v>
       </c>
       <c r="K10">
-        <v>1.015530591868304</v>
+        <v>1.02725017782834</v>
       </c>
       <c r="L10">
-        <v>0.9994434630211393</v>
+        <v>1.012155297112314</v>
       </c>
       <c r="M10">
-        <v>0.9595946488024137</v>
+        <v>0.970947289649745</v>
       </c>
       <c r="N10">
-        <v>1.008522933467206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00923662806027</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030375301662594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.97124082525553</v>
+        <v>0.9851815998210863</v>
       </c>
       <c r="D11">
-        <v>0.9958142851358925</v>
+        <v>1.010714557885024</v>
       </c>
       <c r="E11">
-        <v>0.9789440082501611</v>
+        <v>0.9949123982106514</v>
       </c>
       <c r="F11">
-        <v>0.9349591294047095</v>
+        <v>0.9500426216503611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031395779960509</v>
+        <v>1.040425442029467</v>
       </c>
       <c r="J11">
-        <v>1.00186096887374</v>
+        <v>1.015184104667446</v>
       </c>
       <c r="K11">
-        <v>1.010815571975759</v>
+        <v>1.025437203074994</v>
       </c>
       <c r="L11">
-        <v>0.9942742422928311</v>
+        <v>1.00993090128355</v>
       </c>
       <c r="M11">
-        <v>0.9512214989536402</v>
+        <v>0.9659724357698233</v>
       </c>
       <c r="N11">
-        <v>1.0032837263646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008471943069353</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02912651350584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9686717688551594</v>
+        <v>0.9838268145064468</v>
       </c>
       <c r="D12">
-        <v>0.9937682434217984</v>
+        <v>1.009799513603055</v>
       </c>
       <c r="E12">
-        <v>0.9767136157199063</v>
+        <v>0.9938359863644116</v>
       </c>
       <c r="F12">
-        <v>0.9314506800922736</v>
+        <v>0.9478825313788102</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03020302553548</v>
+        <v>1.039950731635036</v>
       </c>
       <c r="J12">
-        <v>0.9998638308992707</v>
+        <v>1.014331782687655</v>
       </c>
       <c r="K12">
-        <v>1.009015815902816</v>
+        <v>1.024741348136102</v>
       </c>
       <c r="L12">
-        <v>0.9923009704650273</v>
+        <v>1.009082239681329</v>
       </c>
       <c r="M12">
-        <v>0.9480205749575236</v>
+        <v>0.9640813014825539</v>
       </c>
       <c r="N12">
-        <v>1.001283752225132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008177352334415</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028634513993206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9692260049414615</v>
+        <v>0.9841160307190017</v>
       </c>
       <c r="D13">
-        <v>0.9942095856504966</v>
+        <v>1.009993840337113</v>
       </c>
       <c r="E13">
-        <v>0.9771947576944137</v>
+        <v>0.9940653121938813</v>
       </c>
       <c r="F13">
-        <v>0.9322079674882536</v>
+        <v>0.9483451033861008</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030460472200206</v>
+        <v>1.04005147273126</v>
       </c>
       <c r="J13">
-        <v>1.000294770271279</v>
+        <v>1.014513038192827</v>
       </c>
       <c r="K13">
-        <v>1.009404158108166</v>
+        <v>1.024888646891429</v>
       </c>
       <c r="L13">
-        <v>0.9927267593501008</v>
+        <v>1.009262682164907</v>
       </c>
       <c r="M13">
-        <v>0.9487114979741039</v>
+        <v>0.9644860431786496</v>
       </c>
       <c r="N13">
-        <v>1.001715303580478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008239471890114</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028736146764341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,81 +997,93 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710298796614509</v>
+        <v>0.9850690405312028</v>
       </c>
       <c r="D14">
-        <v>0.9956462572557593</v>
+        <v>1.010638098658005</v>
       </c>
       <c r="E14">
-        <v>0.9787608561733702</v>
+        <v>0.9948227681227552</v>
       </c>
       <c r="F14">
-        <v>0.9346712227641458</v>
+        <v>0.9498637760974193</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031297899977313</v>
+        <v>1.040385748002883</v>
       </c>
       <c r="J14">
-        <v>1.001697022285903</v>
+        <v>1.015112995299399</v>
       </c>
       <c r="K14">
-        <v>1.010667825844788</v>
+        <v>1.02537885586167</v>
       </c>
       <c r="L14">
-        <v>0.9941122547108387</v>
+        <v>1.009860082397431</v>
       </c>
       <c r="M14">
-        <v>0.9509588346896087</v>
+        <v>0.965815758796705</v>
       </c>
       <c r="N14">
-        <v>1.003119546953803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00844714075747</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029084182821806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9721321937376808</v>
+        <v>0.9856581678978633</v>
       </c>
       <c r="D15">
-        <v>0.996524354182117</v>
+        <v>1.01103842692688</v>
       </c>
       <c r="E15">
-        <v>0.9797179602141608</v>
+        <v>0.9952919835825622</v>
       </c>
       <c r="F15">
-        <v>0.9361753682747099</v>
+        <v>0.9507994708319426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031809265198763</v>
+        <v>1.040593495352258</v>
       </c>
       <c r="J15">
-        <v>1.002553661572669</v>
+        <v>1.015485216511194</v>
       </c>
       <c r="K15">
-        <v>1.011439821117806</v>
+        <v>1.025684346171828</v>
       </c>
       <c r="L15">
-        <v>0.9949586578765459</v>
+        <v>1.010230810939171</v>
       </c>
       <c r="M15">
-        <v>0.9523310891341435</v>
+        <v>0.9666354823978767</v>
       </c>
       <c r="N15">
-        <v>1.003977402766615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008577021802612</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029306097029902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9784154317913732</v>
+        <v>0.9890211261879732</v>
       </c>
       <c r="D16">
-        <v>1.001531995338801</v>
+        <v>1.013313686480211</v>
       </c>
       <c r="E16">
-        <v>0.9851747116096049</v>
+        <v>0.9979682909163706</v>
       </c>
       <c r="F16">
-        <v>0.9447338176670051</v>
+        <v>0.9561434184436832</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034718455613966</v>
+        <v>1.041766824186218</v>
       </c>
       <c r="J16">
-        <v>1.007432774561685</v>
+        <v>1.017599006963069</v>
       </c>
       <c r="K16">
-        <v>1.015837047529321</v>
+        <v>1.027410663870112</v>
       </c>
       <c r="L16">
-        <v>0.9997794195943053</v>
+        <v>1.012337539719558</v>
       </c>
       <c r="M16">
-        <v>0.9601382886848432</v>
+        <v>0.9713132272931827</v>
       </c>
       <c r="N16">
-        <v>1.008863444655717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009308155280415</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030529866664769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.982246359416309</v>
+        <v>0.9910987068650307</v>
       </c>
       <c r="D17">
-        <v>1.004587159658009</v>
+        <v>1.014721086553924</v>
       </c>
       <c r="E17">
-        <v>0.9885026420559758</v>
+        <v>0.9996240728971229</v>
       </c>
       <c r="F17">
-        <v>0.9499399702762709</v>
+        <v>0.9594351865152095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036487266122063</v>
+        <v>1.042488185204128</v>
       </c>
       <c r="J17">
-        <v>1.010404304489442</v>
+        <v>1.018903299096291</v>
       </c>
       <c r="K17">
-        <v>1.018515234567201</v>
+        <v>1.028475832912161</v>
       </c>
       <c r="L17">
-        <v>1.002715310164392</v>
+        <v>1.01363869668934</v>
       </c>
       <c r="M17">
-        <v>0.9648866119970273</v>
+        <v>0.9741939201250633</v>
       </c>
       <c r="N17">
-        <v>1.011839194496811</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009759339532033</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031285588926427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.984443484720039</v>
+        <v>0.9922878211489471</v>
       </c>
       <c r="D18">
-        <v>1.006340014864963</v>
+        <v>1.015522124826841</v>
       </c>
       <c r="E18">
-        <v>0.9904115619493914</v>
+        <v>1.000570615643585</v>
       </c>
       <c r="F18">
-        <v>0.9529219973329492</v>
+        <v>0.961321988431258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03749993101867</v>
+        <v>1.042896123914141</v>
       </c>
       <c r="J18">
-        <v>1.012107360350624</v>
+        <v>1.019645385121908</v>
       </c>
       <c r="K18">
-        <v>1.020050201478256</v>
+        <v>1.029078199202654</v>
       </c>
       <c r="L18">
-        <v>1.004397882677951</v>
+        <v>1.014379506782208</v>
       </c>
       <c r="M18">
-        <v>0.9676060472311736</v>
+        <v>0.9758435123846741</v>
       </c>
       <c r="N18">
-        <v>1.013544668892659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010013412910472</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03169977206455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9851865164219381</v>
+        <v>0.9927003897999926</v>
       </c>
       <c r="D19">
-        <v>1.006932906050567</v>
+        <v>1.015804127206866</v>
       </c>
       <c r="E19">
-        <v>0.9910571691205222</v>
+        <v>1.000900714767736</v>
       </c>
       <c r="F19">
-        <v>0.9539298642365636</v>
+        <v>0.9619714806251356</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037842093065099</v>
+        <v>1.043040308018309</v>
       </c>
       <c r="J19">
-        <v>1.012683104735777</v>
+        <v>1.019905774164079</v>
       </c>
       <c r="K19">
-        <v>1.020569124808907</v>
+        <v>1.029292413926157</v>
       </c>
       <c r="L19">
-        <v>1.004966690748542</v>
+        <v>1.014639458736025</v>
       </c>
       <c r="M19">
-        <v>0.9685250990939828</v>
+        <v>0.9764123206557853</v>
       </c>
       <c r="N19">
-        <v>1.014121230900878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010104637903026</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031857663148667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9818392555726764</v>
+        <v>0.9908760567510966</v>
       </c>
       <c r="D20">
-        <v>1.004262425568976</v>
+        <v>1.014569797238601</v>
       </c>
       <c r="E20">
-        <v>0.9881489607456012</v>
+        <v>0.9994463818395812</v>
       </c>
       <c r="F20">
-        <v>0.9493871326894704</v>
+        <v>0.9590832172033242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03629948464089</v>
+        <v>1.042410725419439</v>
       </c>
       <c r="J20">
-        <v>1.010088650202078</v>
+        <v>1.018763279006135</v>
       </c>
       <c r="K20">
-        <v>1.018230737158561</v>
+        <v>1.028361202641897</v>
       </c>
       <c r="L20">
-        <v>1.002403447255502</v>
+        <v>1.013498972945554</v>
       </c>
       <c r="M20">
-        <v>0.9643824265859735</v>
+        <v>0.9738858308284533</v>
       </c>
       <c r="N20">
-        <v>1.011523091944153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009710694746319</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031203196579227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9705005980006242</v>
+        <v>0.9848015498131731</v>
       </c>
       <c r="D21">
-        <v>0.9952246812711223</v>
+        <v>1.010462651607518</v>
       </c>
       <c r="E21">
-        <v>0.9783013220169609</v>
+        <v>0.9946123546563443</v>
       </c>
       <c r="F21">
-        <v>0.9339487041328252</v>
+        <v>0.9494312135536395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031052264727849</v>
+        <v>1.040295833002378</v>
       </c>
       <c r="J21">
-        <v>1.001285634699385</v>
+        <v>1.014948748274147</v>
       </c>
       <c r="K21">
-        <v>1.010297091834516</v>
+        <v>1.025248480446451</v>
       </c>
       <c r="L21">
-        <v>0.9937057828631797</v>
+        <v>1.009696521605786</v>
       </c>
       <c r="M21">
-        <v>0.9502996578421476</v>
+        <v>0.9654384267934537</v>
       </c>
       <c r="N21">
-        <v>1.002707575149726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008393227005677</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029005625495788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9629798207008801</v>
+        <v>0.9808577955625579</v>
       </c>
       <c r="D22">
-        <v>0.9892376945131802</v>
+        <v>1.007795585584789</v>
       </c>
       <c r="E22">
-        <v>0.971773430715536</v>
+        <v>0.9914794401486526</v>
       </c>
       <c r="F22">
-        <v>0.9236604380303215</v>
+        <v>0.9431374181458363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027555167991571</v>
+        <v>1.038906327779385</v>
       </c>
       <c r="J22">
-        <v>0.9954354676291712</v>
+        <v>1.012461773145832</v>
       </c>
       <c r="K22">
-        <v>1.005025412772302</v>
+        <v>1.023214176260411</v>
       </c>
       <c r="L22">
-        <v>0.9879255953228916</v>
+        <v>1.007221602044084</v>
       </c>
       <c r="M22">
-        <v>0.9409126923828648</v>
+        <v>0.9599262541504116</v>
       </c>
       <c r="N22">
-        <v>0.9968491001712487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007530743512478</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027553656348297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9670068450859025</v>
+        <v>0.9829440356805483</v>
       </c>
       <c r="D23">
-        <v>0.9924426571796714</v>
+        <v>1.009199368630369</v>
       </c>
       <c r="E23">
-        <v>0.9752683769753245</v>
+        <v>0.9931332547110729</v>
       </c>
       <c r="F23">
-        <v>0.9291744688354859</v>
+        <v>0.9464782611647775</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029429242888621</v>
+        <v>1.039637851569958</v>
       </c>
       <c r="J23">
-        <v>0.9985690094231181</v>
+        <v>1.013772937172537</v>
       </c>
       <c r="K23">
-        <v>1.007849006466751</v>
+        <v>1.024282118730999</v>
       </c>
       <c r="L23">
-        <v>0.9910216287728021</v>
+        <v>1.00852598411917</v>
       </c>
       <c r="M23">
-        <v>0.9459437977265281</v>
+        <v>0.9628506927545576</v>
       </c>
       <c r="N23">
-        <v>0.9999870919539652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007981898001899</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028299030173562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9820233232543368</v>
+        <v>0.9909522221955608</v>
       </c>
       <c r="D24">
-        <v>1.004409248638582</v>
+        <v>1.014610860282981</v>
       </c>
       <c r="E24">
-        <v>0.9883088731529605</v>
+        <v>0.9995029667667356</v>
       </c>
       <c r="F24">
-        <v>0.9496371041122607</v>
+        <v>0.9592160903352948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036384393614189</v>
+        <v>1.042429532325257</v>
       </c>
       <c r="J24">
-        <v>1.010231373625843</v>
+        <v>1.018803063089023</v>
       </c>
       <c r="K24">
-        <v>1.018359372867874</v>
+        <v>1.028386160855251</v>
       </c>
       <c r="L24">
-        <v>1.0025444565877</v>
+        <v>1.01353881649145</v>
       </c>
       <c r="M24">
-        <v>0.9646104005164404</v>
+        <v>0.9739993827587889</v>
       </c>
       <c r="N24">
-        <v>1.01166601805155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009718952323348</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031193265626175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9979986578022771</v>
+        <v>0.9998114864259569</v>
       </c>
       <c r="D25">
-        <v>1.017163961734603</v>
+        <v>1.020619759367043</v>
       </c>
       <c r="E25">
-        <v>1.002192047791226</v>
+        <v>1.006581647101533</v>
       </c>
       <c r="F25">
-        <v>0.9712649276765615</v>
+        <v>0.9731871696793246</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043715886130017</v>
+        <v>1.045468177600551</v>
       </c>
       <c r="J25">
-        <v>1.022593563323567</v>
+        <v>1.024345196470644</v>
       </c>
       <c r="K25">
-        <v>1.029501546725667</v>
+        <v>1.032906195955812</v>
       </c>
       <c r="L25">
-        <v>1.01475643008146</v>
+        <v>1.019078643485634</v>
       </c>
       <c r="M25">
-        <v>0.9843263229066099</v>
+        <v>0.9862164878804368</v>
       </c>
       <c r="N25">
-        <v>1.024045763476608</v>
+        <v>1.011633057384324</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034386311182337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006525843430473</v>
+        <v>1.006276491944612</v>
       </c>
       <c r="D2">
-        <v>1.025170034674418</v>
+        <v>1.024498371229283</v>
       </c>
       <c r="E2">
-        <v>1.011963230629352</v>
+        <v>1.011787463118495</v>
       </c>
       <c r="F2">
-        <v>0.9837248931758126</v>
+        <v>0.9834625225492144</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047716567322714</v>
+        <v>1.047397440075788</v>
       </c>
       <c r="J2">
-        <v>1.028513104325147</v>
+        <v>1.028271081254065</v>
       </c>
       <c r="K2">
-        <v>1.036289503656407</v>
+        <v>1.035626637695742</v>
       </c>
       <c r="L2">
-        <v>1.023258377125327</v>
+        <v>1.023084986570709</v>
       </c>
       <c r="M2">
-        <v>0.995415721239604</v>
+        <v>0.9951571620754617</v>
       </c>
       <c r="N2">
-        <v>1.013063568867841</v>
+        <v>1.014486014443128</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03673007907927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03627016906273</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021469802452265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011262442615978</v>
+        <v>1.010714298656105</v>
       </c>
       <c r="D3">
-        <v>1.028398401493991</v>
+        <v>1.027391014150544</v>
       </c>
       <c r="E3">
-        <v>1.015776104253287</v>
+        <v>1.015335365812364</v>
       </c>
       <c r="F3">
-        <v>0.9911148234404388</v>
+        <v>0.9905409210128699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049286417834956</v>
+        <v>1.048765166940196</v>
       </c>
       <c r="J3">
-        <v>1.031450720719613</v>
+        <v>1.030917082222399</v>
       </c>
       <c r="K3">
-        <v>1.038680369552602</v>
+        <v>1.037685018523147</v>
       </c>
       <c r="L3">
-        <v>1.02621102911182</v>
+        <v>1.025775717024492</v>
       </c>
       <c r="M3">
-        <v>1.001862668483114</v>
+        <v>1.001296280560355</v>
       </c>
       <c r="N3">
-        <v>1.014076814327065</v>
+        <v>1.015205582039586</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03841796956175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03772268029994</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021923438734037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014257743340757</v>
+        <v>1.013523421624357</v>
       </c>
       <c r="D4">
-        <v>1.030443539142904</v>
+        <v>1.029225695911183</v>
       </c>
       <c r="E4">
-        <v>1.018192912410109</v>
+        <v>1.017586871792092</v>
       </c>
       <c r="F4">
-        <v>0.9957757360670697</v>
+        <v>0.9950092200396596</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050268061637292</v>
+        <v>1.049619988511417</v>
       </c>
       <c r="J4">
-        <v>1.033303634986329</v>
+        <v>1.032587410791787</v>
       </c>
       <c r="K4">
-        <v>1.040187913644975</v>
+        <v>1.038983738105338</v>
       </c>
       <c r="L4">
-        <v>1.028076613709849</v>
+        <v>1.027477573181191</v>
       </c>
       <c r="M4">
-        <v>1.005925413033993</v>
+        <v>1.005168254944477</v>
       </c>
       <c r="N4">
-        <v>1.014715908847618</v>
+        <v>1.015659962424458</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039484834383053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038641966990785</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022207072061795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015505643226054</v>
+        <v>1.014694134812182</v>
       </c>
       <c r="D5">
-        <v>1.031298645106546</v>
+        <v>1.029993414710029</v>
       </c>
       <c r="E5">
-        <v>1.019201804277904</v>
+        <v>1.01852713494623</v>
       </c>
       <c r="F5">
-        <v>0.9977126137610385</v>
+        <v>0.9968665614226154</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050676024496023</v>
+        <v>1.049975230447463</v>
       </c>
       <c r="J5">
-        <v>1.03407610533174</v>
+        <v>1.03328399056216</v>
       </c>
       <c r="K5">
-        <v>1.040817936913413</v>
+        <v>1.039526962549198</v>
       </c>
       <c r="L5">
-        <v>1.028854942767882</v>
+        <v>1.028187853646665</v>
       </c>
       <c r="M5">
-        <v>1.007613428682234</v>
+        <v>1.006777398248216</v>
       </c>
       <c r="N5">
-        <v>1.014983262436238</v>
+        <v>1.015850120635359</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039937486672291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039033956498958</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022325747134058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015719911495932</v>
+        <v>1.014894891794839</v>
       </c>
       <c r="D6">
-        <v>1.031448237596505</v>
+        <v>1.030127874323579</v>
       </c>
       <c r="E6">
-        <v>1.019375943064023</v>
+        <v>1.018689187565806</v>
       </c>
       <c r="F6">
-        <v>0.9980421545533412</v>
+        <v>0.9971821905089153</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050747963612756</v>
+        <v>1.050037998907282</v>
       </c>
       <c r="J6">
-        <v>1.03421069597397</v>
+        <v>1.033405289892929</v>
       </c>
       <c r="K6">
-        <v>1.040929721706821</v>
+        <v>1.039623713219623</v>
       </c>
       <c r="L6">
-        <v>1.028990378542319</v>
+        <v>1.028311302824703</v>
       </c>
       <c r="M6">
-        <v>1.007901265888256</v>
+        <v>1.007051436455605</v>
       </c>
       <c r="N6">
-        <v>1.015030973129094</v>
+        <v>1.015884008968044</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040025272485594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039111982608079</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022347654106527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014289744646987</v>
+        <v>1.013562798151587</v>
       </c>
       <c r="D7">
-        <v>1.030472746577042</v>
+        <v>1.029259734612841</v>
       </c>
       <c r="E7">
-        <v>1.018221044837203</v>
+        <v>1.017621811038283</v>
       </c>
       <c r="F7">
-        <v>0.9958176558661499</v>
+        <v>0.9950588525143433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050284030869824</v>
+        <v>1.049639653311107</v>
       </c>
       <c r="J7">
-        <v>1.033328888759182</v>
+        <v>1.032619849790589</v>
       </c>
       <c r="K7">
-        <v>1.040213910954457</v>
+        <v>1.039014506893162</v>
       </c>
       <c r="L7">
-        <v>1.028101492092363</v>
+        <v>1.027509176915417</v>
       </c>
       <c r="M7">
-        <v>1.005963803041985</v>
+        <v>1.005214259291456</v>
       </c>
       <c r="N7">
-        <v>1.014727731673567</v>
+        <v>1.015697560870858</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039523335256661</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038685844637522</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022216973389061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00816072307425</v>
+        <v>1.007837920551454</v>
       </c>
       <c r="D8">
-        <v>1.026292572893442</v>
+        <v>1.025527235668773</v>
       </c>
       <c r="E8">
-        <v>1.013281074556769</v>
+        <v>1.013041506821835</v>
       </c>
       <c r="F8">
-        <v>0.9862685886992366</v>
+        <v>0.985929519107907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048267455002249</v>
+        <v>1.047894533500664</v>
       </c>
       <c r="J8">
-        <v>1.029534819755955</v>
+        <v>1.029221178942804</v>
       </c>
       <c r="K8">
-        <v>1.037127793614472</v>
+        <v>1.036372179513176</v>
       </c>
       <c r="L8">
-        <v>1.024284100947485</v>
+        <v>1.024047673491814</v>
       </c>
       <c r="M8">
-        <v>0.9976378303214107</v>
+        <v>0.9973035186136054</v>
       </c>
       <c r="N8">
-        <v>1.013420050662494</v>
+        <v>1.014828348969898</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037345775478189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036822550658034</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021640532733863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9967693874184947</v>
+        <v>0.9971894140762159</v>
       </c>
       <c r="D9">
-        <v>1.018542875407312</v>
+        <v>1.018601194338943</v>
       </c>
       <c r="E9">
-        <v>1.004143014556889</v>
+        <v>1.004561209580986</v>
       </c>
       <c r="F9">
-        <v>0.9684152450051148</v>
+        <v>0.9688621330065397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044423222896324</v>
+        <v>1.044545982378214</v>
       </c>
       <c r="J9">
-        <v>1.022436745005486</v>
+        <v>1.022841813260191</v>
       </c>
       <c r="K9">
-        <v>1.031342104246851</v>
+        <v>1.031399520558353</v>
       </c>
       <c r="L9">
-        <v>1.017169229972034</v>
+        <v>1.017580715282224</v>
       </c>
       <c r="M9">
-        <v>0.9820424289214348</v>
+        <v>0.9824814451032053</v>
       </c>
       <c r="N9">
-        <v>1.010968483174194</v>
+        <v>1.013102332011499</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033251684057626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033303073098893</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020528092702246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9887488791537039</v>
+        <v>0.989758956695175</v>
       </c>
       <c r="D10">
-        <v>1.013113726727504</v>
+        <v>1.013799733863107</v>
       </c>
       <c r="E10">
-        <v>0.9977452120830002</v>
+        <v>0.9986863512339873</v>
       </c>
       <c r="F10">
-        <v>0.9557299164206414</v>
+        <v>0.9568154370342883</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041660880696384</v>
+        <v>1.042164566978405</v>
       </c>
       <c r="J10">
-        <v>1.017416113585348</v>
+        <v>1.018384868809058</v>
       </c>
       <c r="K10">
-        <v>1.02725017782834</v>
+        <v>1.027924221161638</v>
       </c>
       <c r="L10">
-        <v>1.012155297112314</v>
+        <v>1.013079364591396</v>
       </c>
       <c r="M10">
-        <v>0.970947289649745</v>
+        <v>0.9720107773205895</v>
       </c>
       <c r="N10">
-        <v>1.00923662806027</v>
+        <v>1.012013763916122</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030375301662594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030864384399188</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019742737502891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9851815998210863</v>
+        <v>0.9865341428877453</v>
       </c>
       <c r="D11">
-        <v>1.010714557885024</v>
+        <v>1.011738880011741</v>
       </c>
       <c r="E11">
-        <v>0.9949123982106514</v>
+        <v>0.9961607852993302</v>
       </c>
       <c r="F11">
-        <v>0.9500426216503611</v>
+        <v>0.9515031421858079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040425442029467</v>
+        <v>1.041139923867745</v>
       </c>
       <c r="J11">
-        <v>1.015184104667446</v>
+        <v>1.016478049008493</v>
       </c>
       <c r="K11">
-        <v>1.025437203074994</v>
+        <v>1.026442762478756</v>
       </c>
       <c r="L11">
-        <v>1.00993090128355</v>
+        <v>1.011155468596751</v>
       </c>
       <c r="M11">
-        <v>0.9659724357698233</v>
+        <v>0.9674014976579296</v>
       </c>
       <c r="N11">
-        <v>1.008471943069353</v>
+        <v>1.011738841590373</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02912651350584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029853210477663</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019415909656096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9838268145064468</v>
+        <v>0.9853182545227892</v>
       </c>
       <c r="D12">
-        <v>1.009799513603055</v>
+        <v>1.010958743875154</v>
       </c>
       <c r="E12">
-        <v>0.9938359863644116</v>
+        <v>0.9952096174779566</v>
       </c>
       <c r="F12">
-        <v>0.9478825313788102</v>
+        <v>0.9494960176577593</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039950731635036</v>
+        <v>1.040749730191682</v>
       </c>
       <c r="J12">
-        <v>1.014331782687655</v>
+        <v>1.015757236778993</v>
       </c>
       <c r="K12">
-        <v>1.024741348136102</v>
+        <v>1.025878960766544</v>
       </c>
       <c r="L12">
-        <v>1.009082239681329</v>
+        <v>1.010429172740372</v>
       </c>
       <c r="M12">
-        <v>0.9640813014825539</v>
+        <v>0.9656592665967618</v>
       </c>
       <c r="N12">
-        <v>1.008177352334415</v>
+        <v>1.011649941633991</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028634513993206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029454587547745</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019290402577878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9841160307190017</v>
+        <v>0.9855776093899214</v>
       </c>
       <c r="D13">
-        <v>1.009993840337113</v>
+        <v>1.011124095640117</v>
       </c>
       <c r="E13">
-        <v>0.9940653121938813</v>
+        <v>0.995412044117479</v>
       </c>
       <c r="F13">
-        <v>0.9483451033861008</v>
+        <v>0.9499256531736839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04005147273126</v>
+        <v>1.04083231879192</v>
       </c>
       <c r="J13">
-        <v>1.014513038192827</v>
+        <v>1.015910240954659</v>
       </c>
       <c r="K13">
-        <v>1.024888646891429</v>
+        <v>1.025997905264712</v>
       </c>
       <c r="L13">
-        <v>1.009262682164907</v>
+        <v>1.010583341812041</v>
       </c>
       <c r="M13">
-        <v>0.9644860431786496</v>
+        <v>0.9660319590321408</v>
       </c>
       <c r="N13">
-        <v>1.008239471890114</v>
+        <v>1.011667503529176</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028736146764341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029535929720212</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01931654630084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9850690405312028</v>
+        <v>0.9864330209862502</v>
       </c>
       <c r="D14">
-        <v>1.010638098658005</v>
+        <v>1.011673544820864</v>
       </c>
       <c r="E14">
-        <v>0.9948227681227552</v>
+        <v>0.9960814788541905</v>
       </c>
       <c r="F14">
-        <v>0.9498637760974193</v>
+        <v>0.9513368702536004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040385748002883</v>
+        <v>1.04110719803958</v>
       </c>
       <c r="J14">
-        <v>1.015112995299399</v>
+        <v>1.016417778394563</v>
       </c>
       <c r="K14">
-        <v>1.02537885586167</v>
+        <v>1.026395307254965</v>
       </c>
       <c r="L14">
-        <v>1.009860082397431</v>
+        <v>1.011094739461098</v>
       </c>
       <c r="M14">
-        <v>0.965815758796705</v>
+        <v>0.967257065881343</v>
       </c>
       <c r="N14">
-        <v>1.00844714075747</v>
+        <v>1.011730822722284</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029084182821806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0298184783826</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019405202010454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9856581678978633</v>
+        <v>0.9869625988994494</v>
       </c>
       <c r="D15">
-        <v>1.01103842692688</v>
+        <v>1.012015885099355</v>
       </c>
       <c r="E15">
-        <v>0.9952919835825622</v>
+        <v>0.9964969566801786</v>
       </c>
       <c r="F15">
-        <v>0.9507994708319426</v>
+        <v>0.9522071383793637</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040593495352258</v>
+        <v>1.041278633606476</v>
       </c>
       <c r="J15">
-        <v>1.015485216511194</v>
+        <v>1.016733550164301</v>
       </c>
       <c r="K15">
-        <v>1.025684346171828</v>
+        <v>1.026644013041964</v>
       </c>
       <c r="L15">
-        <v>1.010230810939171</v>
+        <v>1.011412942133068</v>
       </c>
       <c r="M15">
-        <v>0.9666354823978767</v>
+        <v>0.9680130622209167</v>
       </c>
       <c r="N15">
-        <v>1.008577021802612</v>
+        <v>1.011773592022909</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029306097029902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030000807305165</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019461371088126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9890211261879732</v>
+        <v>0.9900042801419237</v>
       </c>
       <c r="D16">
-        <v>1.013313686480211</v>
+        <v>1.013973664516966</v>
       </c>
       <c r="E16">
-        <v>0.9979682909163706</v>
+        <v>0.9988846487331637</v>
       </c>
       <c r="F16">
-        <v>0.9561434184436832</v>
+        <v>0.9571996716697206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041766824186218</v>
+        <v>1.042254114366532</v>
       </c>
       <c r="J16">
-        <v>1.017599006963069</v>
+        <v>1.018542098978685</v>
       </c>
       <c r="K16">
-        <v>1.027410663870112</v>
+        <v>1.028059171234839</v>
       </c>
       <c r="L16">
-        <v>1.012337539719558</v>
+        <v>1.013237333378904</v>
       </c>
       <c r="M16">
-        <v>0.9713132272931827</v>
+        <v>0.9723481289758044</v>
       </c>
       <c r="N16">
-        <v>1.009308155280415</v>
+        <v>1.012048899594</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030529866664769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031004860184171</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019778059813493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9910987068650307</v>
+        <v>0.9918999300345011</v>
       </c>
       <c r="D17">
-        <v>1.014721086553924</v>
+        <v>1.015197118739849</v>
       </c>
       <c r="E17">
-        <v>0.9996240728971229</v>
+        <v>1.000377687329307</v>
       </c>
       <c r="F17">
-        <v>0.9594351865152095</v>
+        <v>0.960293686817275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042488185204128</v>
+        <v>1.042861707013506</v>
       </c>
       <c r="J17">
-        <v>1.018903299096291</v>
+        <v>1.01967298051522</v>
       </c>
       <c r="K17">
-        <v>1.028475832912161</v>
+        <v>1.0289438329087</v>
       </c>
       <c r="L17">
-        <v>1.01363869668934</v>
+        <v>1.014379097557852</v>
       </c>
       <c r="M17">
-        <v>0.9741939201250633</v>
+        <v>0.9750356711288056</v>
       </c>
       <c r="N17">
-        <v>1.009759339532033</v>
+        <v>1.012258336226406</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031285588926427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031633195194214</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019976941049443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9922878211489471</v>
+        <v>0.9929920193505528</v>
       </c>
       <c r="D18">
-        <v>1.015522124826841</v>
+        <v>1.015897980348574</v>
       </c>
       <c r="E18">
-        <v>1.000570615643585</v>
+        <v>1.001237895192872</v>
       </c>
       <c r="F18">
-        <v>0.961321988431258</v>
+        <v>0.9620753861751202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042896123914141</v>
+        <v>1.043208145592863</v>
       </c>
       <c r="J18">
-        <v>1.019645385121908</v>
+        <v>1.020322419328936</v>
       </c>
       <c r="K18">
-        <v>1.029078199202654</v>
+        <v>1.029447822785273</v>
       </c>
       <c r="L18">
-        <v>1.014379506782208</v>
+        <v>1.015035295110023</v>
       </c>
       <c r="M18">
-        <v>0.9758435123846741</v>
+        <v>0.9765825145788792</v>
       </c>
       <c r="N18">
-        <v>1.010013412910472</v>
+        <v>1.012390726033873</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03169977206455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031976685417418</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02008894188903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9927003897999926</v>
+        <v>0.9933714732771648</v>
       </c>
       <c r="D19">
-        <v>1.015804127206866</v>
+        <v>1.016145718249047</v>
       </c>
       <c r="E19">
-        <v>1.000900714767736</v>
+        <v>1.001538418627214</v>
       </c>
       <c r="F19">
-        <v>0.9619714806251356</v>
+        <v>0.962689083066394</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043040308018309</v>
+        <v>1.04333129890225</v>
       </c>
       <c r="J19">
-        <v>1.019905774164079</v>
+        <v>1.020551151682647</v>
       </c>
       <c r="K19">
-        <v>1.029292413926157</v>
+        <v>1.029628375207392</v>
       </c>
       <c r="L19">
-        <v>1.014639458736025</v>
+        <v>1.015266248535362</v>
       </c>
       <c r="M19">
-        <v>0.9764123206557853</v>
+        <v>0.9771163093838684</v>
       </c>
       <c r="N19">
-        <v>1.010104637903026</v>
+        <v>1.012441784752686</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031857663148667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032111394564511</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020130409304747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908760567510966</v>
+        <v>0.9916961722031663</v>
       </c>
       <c r="D20">
-        <v>1.014569797238601</v>
+        <v>1.015065089044535</v>
       </c>
       <c r="E20">
-        <v>0.9994463818395812</v>
+        <v>1.000216884487029</v>
       </c>
       <c r="F20">
-        <v>0.9590832172033242</v>
+        <v>0.9599622084857343</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042410725419439</v>
+        <v>1.042796126981796</v>
       </c>
       <c r="J20">
-        <v>1.018763279006135</v>
+        <v>1.019550988367407</v>
       </c>
       <c r="K20">
-        <v>1.028361202641897</v>
+        <v>1.028848110458552</v>
       </c>
       <c r="L20">
-        <v>1.013498972945554</v>
+        <v>1.014255921314407</v>
       </c>
       <c r="M20">
-        <v>0.9738858308284533</v>
+        <v>0.9747476072785358</v>
       </c>
       <c r="N20">
-        <v>1.009710694746319</v>
+        <v>1.012234045330341</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031203196579227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031564043280343</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019955259788329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9848015498131731</v>
+        <v>0.9862180829647978</v>
       </c>
       <c r="D21">
-        <v>1.010462651607518</v>
+        <v>1.011543586441794</v>
       </c>
       <c r="E21">
-        <v>0.9946123546563443</v>
+        <v>0.9959195282719299</v>
       </c>
       <c r="F21">
-        <v>0.9494312135536395</v>
+        <v>0.9509616364240507</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040295833002378</v>
+        <v>1.041047328690969</v>
       </c>
       <c r="J21">
-        <v>1.014948748274147</v>
+        <v>1.016303539412306</v>
       </c>
       <c r="K21">
-        <v>1.025248480446451</v>
+        <v>1.026309513306639</v>
       </c>
       <c r="L21">
-        <v>1.009696521605786</v>
+        <v>1.010978621014435</v>
       </c>
       <c r="M21">
-        <v>0.9654384267934537</v>
+        <v>0.9669356780071485</v>
       </c>
       <c r="N21">
-        <v>1.008393227005677</v>
+        <v>1.011787382410064</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029005625495788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029772747958959</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019390733331971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9808577955625579</v>
+        <v>0.9826660079074535</v>
       </c>
       <c r="D22">
-        <v>1.007795585584789</v>
+        <v>1.009259682289721</v>
       </c>
       <c r="E22">
-        <v>0.9914794401486526</v>
+        <v>0.9931395211149725</v>
       </c>
       <c r="F22">
-        <v>0.9431374181458363</v>
+        <v>0.9451017257401876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038906327779385</v>
+        <v>1.039896773075087</v>
       </c>
       <c r="J22">
-        <v>1.012461773145832</v>
+        <v>1.014186321453854</v>
       </c>
       <c r="K22">
-        <v>1.023214176260411</v>
+        <v>1.024649908140949</v>
       </c>
       <c r="L22">
-        <v>1.007221602044084</v>
+        <v>1.008848121639949</v>
       </c>
       <c r="M22">
-        <v>0.9599262541504116</v>
+        <v>0.9618452412501344</v>
       </c>
       <c r="N22">
-        <v>1.007530743512478</v>
+        <v>1.011481130347684</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027553656348297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028584431034263</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019017375299783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9829440356805483</v>
+        <v>0.9845285449922945</v>
       </c>
       <c r="D23">
-        <v>1.009199368630369</v>
+        <v>1.010448329686192</v>
       </c>
       <c r="E23">
-        <v>0.9931332547110729</v>
+        <v>0.9945911306797699</v>
       </c>
       <c r="F23">
-        <v>0.9464782611647775</v>
+        <v>0.9481945047327608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039637851569958</v>
+        <v>1.040493199153273</v>
       </c>
       <c r="J23">
-        <v>1.013772937172537</v>
+        <v>1.015286400107885</v>
       </c>
       <c r="K23">
-        <v>1.024282118730999</v>
+        <v>1.025507521766678</v>
       </c>
       <c r="L23">
-        <v>1.00852598411917</v>
+        <v>1.009955189558999</v>
       </c>
       <c r="M23">
-        <v>0.9628506927545576</v>
+        <v>0.9645286219768329</v>
       </c>
       <c r="N23">
-        <v>1.007981898001899</v>
+        <v>1.011593464758787</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028299030173562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029180147904471</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019206475118132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909522221955608</v>
+        <v>0.9917673765245422</v>
       </c>
       <c r="D24">
-        <v>1.014610860282981</v>
+        <v>1.015100426907634</v>
       </c>
       <c r="E24">
-        <v>0.9995029667667356</v>
+        <v>1.000269461530252</v>
       </c>
       <c r="F24">
-        <v>0.9592160903352948</v>
+        <v>0.960089657054637</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042429532325257</v>
+        <v>1.042811575587831</v>
       </c>
       <c r="J24">
-        <v>1.018803063089023</v>
+        <v>1.01958605947743</v>
       </c>
       <c r="K24">
-        <v>1.028386160855251</v>
+        <v>1.02886745184622</v>
       </c>
       <c r="L24">
-        <v>1.01353881649145</v>
+        <v>1.01429184677406</v>
       </c>
       <c r="M24">
-        <v>0.9739993827587889</v>
+        <v>0.9748558692998071</v>
       </c>
       <c r="N24">
-        <v>1.009718952323348</v>
+        <v>1.01223583505151</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031193265626175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031547477280895</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019956233484797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9998114864259569</v>
+        <v>1.000015635124351</v>
       </c>
       <c r="D25">
-        <v>1.020619759367043</v>
+        <v>1.020445723460426</v>
       </c>
       <c r="E25">
-        <v>1.006581647101533</v>
+        <v>1.006807889219362</v>
       </c>
       <c r="F25">
-        <v>0.9731871696793246</v>
+        <v>0.9734036027285541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045468177600551</v>
+        <v>1.04544994255993</v>
       </c>
       <c r="J25">
-        <v>1.024345196470644</v>
+        <v>1.024542473096559</v>
       </c>
       <c r="K25">
-        <v>1.032906195955812</v>
+        <v>1.032734725389147</v>
       </c>
       <c r="L25">
-        <v>1.019078643485634</v>
+        <v>1.01930143280551</v>
       </c>
       <c r="M25">
-        <v>0.9862164878804368</v>
+        <v>0.9864293194664198</v>
       </c>
       <c r="N25">
-        <v>1.011633057384324</v>
+        <v>1.013534430535352</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034386311182337</v>
+        <v>1.034278654281613</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020831418067254</v>
       </c>
     </row>
   </sheetData>
